--- a/samples/transform/hough_image_grayscale_accumulator.xlsx
+++ b/samples/transform/hough_image_grayscale_accumulator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushn\projects\cv-workbench\samples\transform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{31D9E79E-A7F8-402F-AFE1-89E6C75EEC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9773033-A2F8-4D96-971F-C41CD8CC113E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{EAD2CA60-0884-4BE1-9039-2EF307E7835B}"/>
   </bookViews>
@@ -367,7 +367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -482,6 +482,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -527,8 +542,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -574,147 +591,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -741,7 +618,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -751,67 +628,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1147,8 +964,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D2BCC2-DF09-45E9-825D-B7EEA5890DD4}">
   <dimension ref="A1:HD69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DH1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="EF21" sqref="EF21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="900" ySplit="315" topLeftCell="CM38" activePane="bottomRight"/>
+      <selection activeCell="BQ11" sqref="BQ11"/>
+      <selection pane="topRight" activeCell="EK9" sqref="EK9"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
+      <selection pane="bottomRight" activeCell="DN104" sqref="DN104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18456,7 +18277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:212" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:212" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>78</v>
       </c>
@@ -19094,7 +18915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:212" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:212" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>81</v>
       </c>
@@ -19368,7 +19189,7 @@
       <c r="CM37">
         <v>157772</v>
       </c>
-      <c r="CN37">
+      <c r="CN37" s="1">
         <v>1158396</v>
       </c>
       <c r="CO37">
@@ -19386,7 +19207,7 @@
       <c r="CS37">
         <v>1245799</v>
       </c>
-      <c r="CT37">
+      <c r="CT37" s="1">
         <v>1075928</v>
       </c>
       <c r="CU37">
@@ -19732,7 +19553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:212" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:212" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>84</v>
       </c>
@@ -20370,7 +20191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:212" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:212" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>87</v>
       </c>
@@ -20779,7 +20600,7 @@
       <c r="EF39">
         <v>640524</v>
       </c>
-      <c r="EG39">
+      <c r="EG39" s="1">
         <v>1547113</v>
       </c>
       <c r="EH39">
@@ -20791,7 +20612,7 @@
       <c r="EJ39">
         <v>459858</v>
       </c>
-      <c r="EK39">
+      <c r="EK39" s="2">
         <v>2267697</v>
       </c>
       <c r="EL39">
@@ -40150,20 +39971,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B10:HD69">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="between">
-      <formula>2000000</formula>
-      <formula>1500000</formula>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+      <formula>1000000</formula>
+      <formula>750000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
-      <formula>2000000</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
       <formula>1000000</formula>
       <formula>1500000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="between">
-      <formula>1000000</formula>
-      <formula>750000</formula>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+      <formula>2000000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
+      <formula>2000000</formula>
+      <formula>1500000</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/samples/transform/hough_image_grayscale_accumulator.xlsx
+++ b/samples/transform/hough_image_grayscale_accumulator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushn\projects\cv-workbench\samples\transform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9773033-A2F8-4D96-971F-C41CD8CC113E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDD3D37-EC72-4CC8-8077-71EDB4AEC914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{EAD2CA60-0884-4BE1-9039-2EF307E7835B}"/>
   </bookViews>
@@ -542,10 +542,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -969,7 +968,7 @@
       <selection activeCell="BQ11" sqref="BQ11"/>
       <selection pane="topRight" activeCell="EK9" sqref="EK9"/>
       <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
-      <selection pane="bottomRight" activeCell="DN104" sqref="DN104"/>
+      <selection pane="bottomRight" activeCell="EK39" sqref="EK39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20612,7 +20611,7 @@
       <c r="EJ39">
         <v>459858</v>
       </c>
-      <c r="EK39" s="2">
+      <c r="EK39" s="1">
         <v>2267697</v>
       </c>
       <c r="EL39">
